--- a/data/trans_dic/P36$cafe-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,67; 91,13</t>
+          <t>83,39; 91,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,54; 93,44</t>
+          <t>86,39; 93,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,17; 89,04</t>
+          <t>79,48; 88,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,34; 87,65</t>
+          <t>78,45; 88,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,35; 92,08</t>
+          <t>84,54; 92,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,95; 93,83</t>
+          <t>86,29; 93,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,5; 88,8</t>
+          <t>82,45; 88,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,88</t>
+          <t>86,69; 91,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,76; 90,26</t>
+          <t>84,26; 90,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,1; 89,42</t>
+          <t>83,49; 89,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,65; 90,64</t>
+          <t>84,9; 90,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,59; 91,95</t>
+          <t>86,62; 92,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,59; 90,96</t>
+          <t>85,27; 91,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,54; 94,08</t>
+          <t>89,06; 94,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,16; 93,95</t>
+          <t>89,32; 93,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,33; 89,48</t>
+          <t>85,68; 89,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,83; 91,7</t>
+          <t>88,02; 91,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,73; 92,47</t>
+          <t>88,68; 92,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,23</t>
+          <t>93,47; 98,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,31; 96,84</t>
+          <t>91,55; 96,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,16; 95,87</t>
+          <t>90,21; 96,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,12; 98,19</t>
+          <t>93,95; 98,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,4; 94,6</t>
+          <t>88,39; 94,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,96; 96,88</t>
+          <t>92,19; 96,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,58; 97,75</t>
+          <t>94,49; 97,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,81; 95,05</t>
+          <t>91,1; 95,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,12; 95,81</t>
+          <t>92,0; 95,87</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,57; 92,67</t>
+          <t>86,02; 92,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,54; 94,22</t>
+          <t>87,72; 94,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,85; 93,38</t>
+          <t>86,91; 93,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,75; 94,9</t>
+          <t>89,92; 95,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,22; 98,49</t>
+          <t>94,96; 98,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,22; 96,46</t>
+          <t>91,55; 96,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,91; 93,0</t>
+          <t>88,82; 93,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,19; 95,7</t>
+          <t>92,07; 95,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,07; 94,37</t>
+          <t>89,67; 93,99</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,98; 96,61</t>
+          <t>89,99; 96,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,65; 96,6</t>
+          <t>88,55; 96,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,61; 93,69</t>
+          <t>85,94; 93,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>93,98; 98,73</t>
+          <t>93,98; 98,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,02; 96,86</t>
+          <t>90,47; 96,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,67; 94,92</t>
+          <t>87,42; 94,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>93,03; 97,07</t>
+          <t>93,33; 97,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>91,16; 96,0</t>
+          <t>91,24; 96,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,94; 93,23</t>
+          <t>88,14; 93,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,42; 97,52</t>
+          <t>92,02; 97,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,98; 93,98</t>
+          <t>85,68; 93,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,24; 89,84</t>
+          <t>81,0; 89,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,17; 96,11</t>
+          <t>90,14; 96,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 97,3</t>
+          <t>91,93; 97,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,9; 94,5</t>
+          <t>88,42; 94,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,03</t>
+          <t>92,09; 96,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,3; 94,88</t>
+          <t>90,28; 95,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>85,4; 91,2</t>
+          <t>85,71; 91,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,43; 95,54</t>
+          <t>91,46; 95,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>88,05; 92,83</t>
+          <t>87,71; 92,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,48; 94,96</t>
+          <t>90,74; 94,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,33</t>
+          <t>91,41; 95,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,37; 94,51</t>
+          <t>90,8; 94,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,98; 97,17</t>
+          <t>94,09; 97,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,07; 95,01</t>
+          <t>92,14; 94,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,94; 93,29</t>
+          <t>89,98; 93,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,94; 95,54</t>
+          <t>93,04; 95,58</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>88,65; 92,85</t>
+          <t>88,54; 92,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>91,76; 95,35</t>
+          <t>91,82; 95,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,97; 94,75</t>
+          <t>90,85; 94,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>87,66; 91,83</t>
+          <t>87,14; 91,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>93,3; 96,48</t>
+          <t>93,38; 96,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,37; 95,63</t>
+          <t>92,28; 95,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>88,69; 91,65</t>
+          <t>88,53; 91,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,19; 95,55</t>
+          <t>93,28; 95,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,02; 94,7</t>
+          <t>92,35; 94,76</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90,49; 92,46</t>
+          <t>90,48; 92,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>90,41; 92,44</t>
+          <t>90,44; 92,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89,73; 91,74</t>
+          <t>89,7; 91,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>90,57; 92,49</t>
+          <t>90,66; 92,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>92,69; 94,42</t>
+          <t>92,69; 94,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>92,65; 94,37</t>
+          <t>92,74; 94,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>90,89; 92,19</t>
+          <t>90,89; 92,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>91,89; 93,17</t>
+          <t>91,92; 93,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>91,64; 92,88</t>
+          <t>91,51; 92,85</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, café, leche, té, chololate, yogurt,...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>238190</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>266352</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>249307</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>217602</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>253763</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>261700</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>455792</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>520115</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>511007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>226196; 249464</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>254622; 275252</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>233486; 260763</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>203791; 228580</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>242047; 264554</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>249132; 270477</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>437840; 470823</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>503686; 534066</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>490755; 525153</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>426762</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>443235</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>447731</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>446060</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>479479</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>480728</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>872822</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>922714</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>928459</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>410789; 441585</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>428302; 456872</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>433451; 460562</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>429721; 459163</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>464647; 490834</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>467195; 491602</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>853349; 892972</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>903238; 940426</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>907586; 945554</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>307650</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>305811</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>297917</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>323738</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>313696</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>319219</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>631388</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>619506</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>617136</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>298027; 312995</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>295822; 312955</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>287368; 306002</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>315106; 329297</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>301424; 323118</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>310033; 325943</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>618188; 639498</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>605034; 631670</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>602468; 627818</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>320723</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>339741</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>334479</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>344470</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>377951</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>364782</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>665193</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>717692</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>699261</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>307680; 331190</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>327092; 350567</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>321538; 344907</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>333997; 353462</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>369337; 383036</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>354567; 373286</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>647607; 679303</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>701433; 729629</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>679040; 711721</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>189944</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>198747</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>190858</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>200710</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>207767</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>200469</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>390654</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>406515</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>391326</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>182158; 195054</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>188268; 205061</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>181525; 197704</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>194223; 204479</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>198661; 212974</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>191090; 207375</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>381810; 397673</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>394366; 415840</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>378850; 402574</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>258056</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>248399</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>225430</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>259826</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>265670</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>249691</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>517882</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>514069</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>475120</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>249195; 263396</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>234734; 256749</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>213121; 235998</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>250707; 267163</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>256490; 271624</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>240428; 257268</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>505545; 527163</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>499250; 525975</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>458581; 489542</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>574084</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>599669</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>609036</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>595869</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>644101</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>660304</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1169953</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1243770</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1269340</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>560632; 585985</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>581323; 615205</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>594161; 620951</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>581629; 606847</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>629992; 656778</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>648519; 668810</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1151128; 1185000</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1220697; 1263605</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1250471; 1284615</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>676248</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>727972</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>723715</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>702670</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>782286</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>777610</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1378918</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1510258</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1501325</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>658537; 689967</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>712759; 740364</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>707341; 737438</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>682789; 718097</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>767335; 793156</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>762385; 789917</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1352193; 1400228</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1490614; 1528882</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1481907; 1520609</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>6015</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6048</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2991657</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3129926</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3078474</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3090946</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3324712</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3314502</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>6082602</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>6454638</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>6392976</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2958647; 3022335</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3093794; 3160962</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3041234; 3112948</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3060053; 3122923</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3292647; 3353261</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3284294; 3342354</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>6039320; 6124212</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6409528; 6498596</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>6343469; 6435749</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>